--- a/OnBoard/output/trust/bio/Bio_Trust_55.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_55.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q176"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6772,10 +6772,10 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I127">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6784,15 +6784,15 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>SS7846</t>
         </is>
       </c>
     </row>
@@ -6829,27 +6829,27 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="I128">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>SS7847</t>
         </is>
       </c>
     </row>
@@ -6886,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="I129">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6904,9 +6904,9 @@
       <c r="L129">
         <v>0</v>
       </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>SS7848</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6943,27 +6943,27 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="I130">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>SS7849</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7000,10 +7000,10 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I131">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -7018,9 +7018,9 @@
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>SS7850</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7057,10 +7057,10 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I132">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -7075,9 +7075,9 @@
       <c r="L132">
         <v>0</v>
       </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>SS7851</t>
         </is>
       </c>
     </row>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7114,27 +7114,27 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I133">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L133">
         <v>0</v>
       </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>SS7852</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7171,2419 +7171,25 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="I134">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>200</v>
-      </c>
-      <c r="I135">
-        <v>67</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>195</v>
-      </c>
-      <c r="I136">
-        <v>62</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>225</v>
-      </c>
-      <c r="I137">
-        <v>97</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>206</v>
-      </c>
-      <c r="I138">
-        <v>74</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>235</v>
-      </c>
-      <c r="I139">
-        <v>111</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>223</v>
-      </c>
-      <c r="I140">
-        <v>94</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>195</v>
-      </c>
-      <c r="I141">
-        <v>62</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>196</v>
-      </c>
-      <c r="I142">
-        <v>63</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>206</v>
-      </c>
-      <c r="I143">
-        <v>74</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>195</v>
-      </c>
-      <c r="I144">
-        <v>62</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>235</v>
-      </c>
-      <c r="I145">
-        <v>111</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>225</v>
-      </c>
-      <c r="I146">
-        <v>97</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>175</v>
-      </c>
-      <c r="I147">
-        <v>44</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>219</v>
-      </c>
-      <c r="I148">
-        <v>89</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>202</v>
-      </c>
-      <c r="I149">
-        <v>69</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>239</v>
-      </c>
-      <c r="I150">
-        <v>117</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>222</v>
-      </c>
-      <c r="I151">
-        <v>93</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>232</v>
-      </c>
-      <c r="I152">
-        <v>107</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>209</v>
-      </c>
-      <c r="I153">
-        <v>77</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>205</v>
-      </c>
-      <c r="I154">
-        <v>73</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>223</v>
-      </c>
-      <c r="I155">
-        <v>94</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>213</v>
-      </c>
-      <c r="I156">
-        <v>82</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>227</v>
-      </c>
-      <c r="I157">
-        <v>100</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>230</v>
-      </c>
-      <c r="I158">
-        <v>104</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>233</v>
-      </c>
-      <c r="I159">
-        <v>108</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>215</v>
-      </c>
-      <c r="I160">
-        <v>84</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>200</v>
-      </c>
-      <c r="I161">
-        <v>67</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>240</v>
-      </c>
-      <c r="I162">
-        <v>119</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>240</v>
-      </c>
-      <c r="I163">
-        <v>119</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>241</v>
-      </c>
-      <c r="I164">
-        <v>120</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>251</v>
-      </c>
-      <c r="I165">
-        <v>136</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>234</v>
-      </c>
-      <c r="I166">
-        <v>110</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>243</v>
-      </c>
-      <c r="I167">
-        <v>123</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>240</v>
-      </c>
-      <c r="I168">
-        <v>119</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>192</v>
-      </c>
-      <c r="I169">
-        <v>59</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>SS7846</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>174</v>
-      </c>
-      <c r="I170">
-        <v>43</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>SS7847</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>273</v>
-      </c>
-      <c r="I171">
-        <v>169</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>SS7848</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>283</v>
-      </c>
-      <c r="I172">
-        <v>216</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>SS7849</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>175</v>
-      </c>
-      <c r="I173">
-        <v>38</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>SS7850</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>185</v>
-      </c>
-      <c r="I174">
-        <v>52</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>SS7851</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>183</v>
-      </c>
-      <c r="I175">
-        <v>48</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>SS7852</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>281</v>
-      </c>
-      <c r="I176">
-        <v>211</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="N176" t="inlineStr">
+      <c r="N134" t="inlineStr">
         <is>
           <t>SS7853</t>
         </is>
